--- a/biology/Zoologie/Acuclavella/Acuclavella.xlsx
+++ b/biology/Zoologie/Acuclavella/Acuclavella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acuclavella est un genre d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis. Elles se rencontrent en Idaho et au Washington[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis. Elles se rencontrent en Idaho et au Washington.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (22/04/2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (22/04/2021) :
 Acuclavella cosmetoides Shear, 1986
 Acuclavella leonardi Richart &amp; Hedin, 2013
 Acuclavella makah Richart &amp; Hedin, 2013
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shear, 1986 : « A cladistic analysis of the opilionid superfamily Ischyropsalidoidea, with description of the new family Ceratolasmatidae, the new genus Acuclavella and four new species. » American Museum Novitates, no 2844, p. 1–29 (texte intégral).</t>
         </is>
